--- a/Recycling/Met_rec/metrec_Max_hist.xlsx
+++ b/Recycling/Met_rec/metrec_Max_hist.xlsx
@@ -111,6 +111,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="4">
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +495,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -492,7 +533,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,11 +545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.000155595314593631</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.259604567929152E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.191389874578182E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8.928368020520174E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.953730354335455E-05</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +583,7 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,11 +595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>94.70019881508941</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>73.9143156055778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>101.600544852109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>60.82809710043539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>527.0327741434309</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +633,7 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,11 +645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>97.6198804622725</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>77.57860877837227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>108.0077799286838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>63.94189657686058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>546.197883569552</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +683,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,11 +695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0003519052604852248</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.013887312657897E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.395874639509403E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.758865147807173E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.604294879588654E-05</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +733,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,11 +745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0007429715214357212</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0001419436924358864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8.226491924888875E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.264922685613244E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.000136704373438548</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +783,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,11 +795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.001488162538163309</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0002746064630577747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.461801380829731E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.777124329337106E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0002330346459146538</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +833,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,11 +845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.002864603657711521</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0005141666020494856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.519893686435278E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9.855417629229568E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0003812662261258154</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +883,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,11 +895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.005347071484671355</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0009380667610800184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.318225073368912E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0001637291524572091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0006048918270050344</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +933,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,11 +945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.009715291701163089</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.001667892296602681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.513953071480365E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.000266736234128934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0009381881380955081</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +983,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,11 +995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.01717540821702762</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.002880414496224306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0001342658035118805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0004276277267759572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001431326874125667</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,11 +1045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0294852478685293</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.004816926496827894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0002449175033790525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0006753002744638321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.002157607378987036</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,11 +1095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.04907781688025861</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.007791645832437763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0004488341589098738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.00105024511696479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.003222402341535852</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,10 +1145,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -830,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,11 +1195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.07917686675373739</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.01219929242569559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0008148287863904449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.001608043488881258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.00477313735074322</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,11 +1245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.1238949226000164</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.01852178178543641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.001452113061322932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.002423072780456489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.007010139071006398</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,11 +1295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.1883015875821421</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.02733430657964331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.002524533208470568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.003592042013901459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.01019836900042175</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,11 +1345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.278446726495627</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0393111295665162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.004263921303580723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.005237499057467295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.01468012749968676</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,11 +1395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.4013155036856179</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05523086730839601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.006983551612385618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.007511568838244078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.02088817049659352</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,11 +1445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.5646844574749386</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07598120376759253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.01109299050272051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.0106000950431658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.02935892009522283</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,11 +1495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.7768511420605089</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1025662252513421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.01712109886169575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.01473025368089563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.0407555131930592</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,11 +1545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.046237561439199</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1361250236848646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.02576197242601267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.02019078729626875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.05592791658292555</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,11 +1595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.380863922467352</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1779602801795319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.03794231971665988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.02736440484031175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.07600891441325967</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,11 +1645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.787687664870503</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.2295788616991807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.05491811289043488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.03677360248077666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1025561837972763</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,11 +1695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5.035801654524376E-10</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.998924248029732E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.37634003029482E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.071956551452926E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.545954883191526E-10</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,11 +1745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.271906061014294</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.2927649891009625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0784452308437444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.04915659356745638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1378083156665476</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1154,11 +1795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.836354730569884</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.369682748875874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1110195679653895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.06557126058793918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1850477649758001</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,11 +1845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.481115297366652</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.4629935006890867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1561588814203599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.08751615196749599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2490284359711258</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,11 +1895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4.203518293622461</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.5759817087801132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2187148859034162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1170638994278821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.3364508189121374</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1232,11 +1945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4.998827297619569</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.7126847586357782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.3052085832340186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1570034534017188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4564818346592926</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,11 +1995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5.86197552404701</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.8780222114175895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4241822769824561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.2109862457166161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.6213316322961001</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1284,11 +2045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6.790766514042097</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.077922136264337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.5865633874918058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.2836744778414071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.8468796411970331</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,11 +2095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7.790883751195673</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.319443356365233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.8060355260853646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3808910122824625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.153332374131491</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,11 +2145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8.882797754067926</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.610892061068381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.099410566132794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.5097689048066861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.565900391953393</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,11 +2195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10.11013984571305</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.961922241529847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.486975764854395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.6788900350174765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.115457482675955</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1388,11 +2245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.081528252943273E-08</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.260166053374901E-08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.209462933665889E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.546378746245614E-09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.932229216384076E-08</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,11 +2295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11.54829333978401</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.383591585005724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.992752219810792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.8983861548475021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.839094686216484</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,11 +2345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13.31115702557219</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.888373886877954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.644656855289944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.179999513220089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.780557237191962</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1466,11 +2395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>15.5535295752063</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.49014278470748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.474584684406966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.537110673491118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.990585195645131</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,11 +2445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>18.4665601975606</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.204132282279654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.518406824601188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.984732050772981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6.527148869797271</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,11 +2495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>22.26457469124597</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.04687426593743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5.815867086677669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.539460898140401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8.455547836580552</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,11 +2545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>27.16330795410598</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.036107366152166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.410347173686636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.219381216344799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10.84831569661791</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +2583,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,11 +2595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>33.35168762761126</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7.190655269391527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9.34847846071585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.043905038986373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>13.78489372153328</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1596,11 +2645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>40.96095737928501</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.530272304306081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11.67958043952433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.033543105751742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17.35104238150744</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +2683,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,11 +2695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>50.03532723506677</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.07544799109115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14.45489918782986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.209592332663078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>21.63794352738839</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,11 +2745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>60.5074522226911</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11.84715706654153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17.72661611109793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7.593725874524788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>26.74094209849046</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1674,11 +2795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.380397324783686E-07</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.108414386803849E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.841352170781205E-09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.123852596737598E-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.768150755858598E-07</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +2833,7 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1700,11 +2845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>72.18071421126803</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13.8665366023306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21.54659630164489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9.207470723120094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>32.75788100403081</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1726,11 +2895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>84.7197366614409</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16.15446235082363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>25.9648471177418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11.0715578550224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39.78696439202851</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1752,11 +2945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>97.65139734377836</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>18.73098853293741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>31.02766158211381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>13.20513130959852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>47.92407919015611</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,11 +2995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>110.3800967219245</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>21.61461107694958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>36.77542877833785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15.62480586878764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>57.25951842304188</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +3033,7 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1804,11 +3045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>122.2214585391219</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24.82131398729394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43.24010742243114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18.34357069447353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>67.87407491153169</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,11 +3095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>132.4564560752209</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28.36336462006641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>50.44238053673888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21.36954850173532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>79.83451511681118</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,11 +3145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>140.4030215581949</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>32.24783348337408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>58.38852774969663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>24.70462566855811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>93.18845811339223</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,11 +3195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>145.49601127121</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>36.47483553170345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>67.06708013979498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>28.34298168623036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>107.9587262848368</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +3233,7 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1908,11 +3245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>147.3614598690712</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>41.03552462723243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>76.44536323977063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>32.26956815545294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>124.1373094021427</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1934,11 +3295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>145.869775715887</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45.90991823393694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>86.4660812335048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>36.45861202822597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>141.6791712886549</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,11 +3345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.864321744818052E-06</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.266209570076175E-07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.831052176456605E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.973145194994666E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8.590330184193999E-07</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1986,11 +3395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>141.1561702266793</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>51.06468347216251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>97.0441489195052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>40.87224483502767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>160.4962295095127</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +3433,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,11 +3445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>133.6045854733952</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>56.45107156861174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>108.0640333254699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>45.45938586438048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>180.4519329577504</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +3483,7 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,11 +3495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>123.8010350177106</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>62.00324032605775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>119.3779207200298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50.15503154548333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>201.3569593890555</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +3533,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2064,11 +3545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>112.4695746236568</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>67.63724431130051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>130.8050698641217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>54.88012166118521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>222.9666438982046</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,11 +3595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>100.4055092912666</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>73.25098847956478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>142.1327374296836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>59.54215910613278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>244.9808034645276</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +3633,7 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,11 +3645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>88.41519241975557</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>78.72542356015782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>153.1190547738155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>64.03674823127473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>267.0466233769903</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2142,11 +3695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>77.26335504299138</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>83.927205072398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>163.4981867501747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>68.25018464516535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>288.7652049376333</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +3733,7 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2168,11 +3745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>67.62349790026141</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>88.7129390708326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>172.9879986758463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>72.063169989687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>309.7022154642308</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +3783,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,11 +3795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>60.02894607375999</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>92.93500038721798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>181.3002895237581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>75.35563719396268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>329.4028200583379</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +3833,7 @@
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,11 +3845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>54.83027054678755</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>96.44874394275966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>188.1534194362451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>78.01255897534347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>347.4107147155327</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2246,11 +3895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7.237396159257158E-06</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.842489391771341E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.418385070292919E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.63369787951263E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.937889618595884E-06</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +3933,7 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,11 +3945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>52.17191034424473</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>99.1207526945044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>193.2868787774982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>79.93048264501058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>363.2906399010387</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2298,11 +3995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>51.99979391168851</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100.8375982980595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>196.4770402663221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>81.02440251908756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>376.6532718440772</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +4033,7 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,11 +4045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>54.10122743180604</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>101.5144537235847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>197.5530400036919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>81.2344635743036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>387.1809189509996</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,11 +4095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>58.16434755143133</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>101.1028122458483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>196.411494260028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>80.53190697991563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>394.6520620851797</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2376,11 +4145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>63.83626909424388</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>99.59655291021656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>193.0286283737819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>78.92364091819123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>398.9625454155939</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +4183,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2402,11 +4195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>70.76229731252093</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>97.03566056065998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>187.4684171903375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>76.45486442446231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>400.1412145357555</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +4233,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2428,11 +4245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>78.60080073771228</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>93.50706272140626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>179.8855437079738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>73.20929558474471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>398.3580507020373</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +4283,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2454,11 +4295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>87.02090889315463</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>89.14227749813712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>170.5223747295883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>69.30675266405599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>393.9233736283892</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2480,11 +4345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>95.69524460673277</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>84.1118563857023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>159.6996991606447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>64.89808900702089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>387.2774430497016</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +4383,7 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2506,11 +4395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>104.2964495922131</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>78.61692259501248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>147.8016144741947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>60.15775940494235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>378.9706989082077</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +4433,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2532,11 +4445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.289573233816822E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5.4007078338386E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.079096867462923E-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.794493438627236E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8.03909003535443E-06</v>
       </c>
     </row>
   </sheetData>
@@ -2546,7 +4483,7 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,11 +4495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>112.4997123404919</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>72.8784096784796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>135.2555926213657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>55.27455841595506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>369.6358268055898</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +4533,7 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,11 +4545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>119.9896243037185</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>67.12485526712757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>122.5093122607027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50.44128044813502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>359.9536878633501</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +4583,7 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,11 +4595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>126.4697886546631</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>61.57976294051415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>110.0062210361414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>45.84417417866808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>350.6157928136519</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +4633,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2636,11 +4645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>131.6751870049938</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>56.44958713041165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>98.16192939639168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>41.65308089167137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>342.2863419583423</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2662,11 +4695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>135.3877960330331</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>51.91331539614916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>87.3434162392896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>38.01305612997648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>335.5668555727871</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +4733,7 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2688,11 +4745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>137.4548576548796</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>48.1144326046371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>77.85266978210544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>35.03809272953507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>330.9660973165379</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +4783,7 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2714,11 +4795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>137.8075088915542</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45.15578264981456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>69.91585561477115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>32.80732078413467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>328.877404948284</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +4833,7 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2740,11 +4845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>136.4761304193131</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>43.09753405905337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>63.67847940256273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>31.36379237587546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>329.5647754523091</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +4883,7 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2766,11 +4895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>133.5982431011268</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>41.95814699913871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>59.20638172084708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>30.7157019045915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>333.1582028354633</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +4933,7 @@
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2792,11 +4945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>129.415337336512</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>41.71796670503224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>56.49184519892916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>30.83967648214568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>339.6579284546911</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,11 +4995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6.301465752733173E-05</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.39615280987779E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.000582078702494E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.207269959202511E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.886062051509322E-05</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +5033,7 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2844,11 +5045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>124.25685436238</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>42.3248587223102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>55.46366798808997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>31.68561574347626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>348.9465155776849</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2870,11 +5095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>118.5124596873893</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>43.70117155912376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>55.99979921559829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>33.1824779533483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>360.80706921558</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,11 +5145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>112.5968763421617</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>45.75126886750473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>57.94105593452858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>35.244401504141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>374.9455367062584</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +5183,7 @@
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2922,11 +5195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>106.9135404151572</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>48.36891462180333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>61.10454195981884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>37.77661243730033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>391.0148754924335</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +5233,7 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2948,11 +5245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>101.8231891487231</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>51.44391113476755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>65.29564234525508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>40.68068677610539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>408.6389689539637</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +5283,7 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2974,11 +5295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>97.62127760863049</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>54.86756215425044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>70.31782890475276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>43.85889104790827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>427.4344832270057</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +5333,7 @@
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3000,11 +5345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>94.52508450110244</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>58.53673525730232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>75.97992173093181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>47.21748971356139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>447.0293334904193</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +5383,7 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3026,11 +5395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>92.66905746843528</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>62.35649695596242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>82.10084076987343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50.66905597553801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>467.0769782035528</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +5433,7 @@
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,11 +5445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>92.10615417212678</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>66.24146025543034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>88.51218820208587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>54.13392875046461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>487.2662942796842</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +5483,7 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3078,11 +5495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>92.81334603377738</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>70.11609671639607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>95.05918606374205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>57.54101029045236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>507.3272330591093</v>
       </c>
     </row>
   </sheetData>
